--- a/biology/Botanique/Dyera_costulata/Dyera_costulata.xlsx
+++ b/biology/Botanique/Dyera_costulata/Dyera_costulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dyera costulata est une espèce de plantes à fleurs de la famille des Apocynaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dyera laxiflora
 Malais: Jelutong
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un arbre géant dont la taille atteint 60 mètres, et parfois même 80 mètres. Et son tronc peut atteindre 3 mètres de diamètre.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Péninsule malaise, Bornéo et Sumatra jusqu'à une altitude de 400 mètres.
 </t>
@@ -605,7 +623,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La résine du Jelutong était utilisée pour la production de chewing-gum.
 </t>
@@ -636,7 +656,9 @@
           <t>Préservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Souffrant de la déforestation, l'espèce bénéficie cependant d'une bonne capacité de régénération.
 </t>
